--- a/Gang og Sykkel varslingsystem/Milepælliste.xlsx
+++ b/Gang og Sykkel varslingsystem/Milepælliste.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="457" documentId="11_76A6F4E0D7503C526EF59792EBA098825550E92B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E33ED40A-2CAD-41C0-9CDB-D6ABFBC3BCCA}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emile\Documents\Dugeleg\Gang og Sykkel varslingsystem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7347C4-FC06-4462-82D7-905B61D6893C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +43,19 @@
   <commentList>
     <comment ref="A6" authorId="0" shapeId="0" xr:uid="{C6CAB725-E1DB-451B-9060-8CAA894DD7E2}">
       <text>
-        <t xml:space="preserve">Emil Olufsen:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Emil Olufsen:
 SQL database: 2-3timer
 Python Skript for henting og plasering av data: 7-8timer
 </t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -128,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,11 +565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="6" customWidth="1"/>
@@ -563,7 +575,7 @@
     <col min="4" max="4" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="109.5" customHeight="1">
+    <row r="1" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -577,7 +589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -591,7 +603,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -605,7 +617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -619,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -633,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -647,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
@@ -661,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -675,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
@@ -689,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
@@ -703,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -718,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>14</v>
       </c>
@@ -726,7 +738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -753,14 +765,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010063A40A4A8D2C6B4CA564D8EE51BC8BE9" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="23c42a97dd681451c13e7af1abeef51f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="db803184-edef-4b28-ac3d-3addf7576905" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2981854274215188bf3df9536b54658c" ns2:_="">
     <xsd:import namespace="db803184-edef-4b28-ac3d-3addf7576905"/>
@@ -898,29 +926,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4AEEB69-9959-4E5E-9CBA-8CDDBC740872}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5B8CCA5-46C5-4FE2-8F8D-E0590993F707}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C585050-D745-4175-AE4B-4C2BE217B023}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C585050-D745-4175-AE4B-4C2BE217B023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5B8CCA5-46C5-4FE2-8F8D-E0590993F707}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4AEEB69-9959-4E5E-9CBA-8CDDBC740872}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="db803184-edef-4b28-ac3d-3addf7576905"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Gang og Sykkel varslingsystem/Milepælliste.xlsx
+++ b/Gang og Sykkel varslingsystem/Milepælliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emile\Documents\Dugeleg\Gang og Sykkel varslingsystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7347C4-FC06-4462-82D7-905B61D6893C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0C40F0-7B99-4277-8EDC-10B13FE8AE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -63,14 +52,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -85,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Mål</t>
   </si>
@@ -136,12 +125,18 @@
   </si>
   <si>
     <t>Totalt</t>
+  </si>
+  <si>
+    <t>Tanker om lønn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="&quot;kr&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment textRotation="180" wrapText="1"/>
@@ -215,6 +210,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,9 +559,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -763,6 +761,15 @@
         <v>3.6533333333333333</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="10">
+        <f>B13*350</f>
+        <v>47950</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -774,21 +781,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010063A40A4A8D2C6B4CA564D8EE51BC8BE9" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="23c42a97dd681451c13e7af1abeef51f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="db803184-edef-4b28-ac3d-3addf7576905" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2981854274215188bf3df9536b54658c" ns2:_="">
     <xsd:import namespace="db803184-edef-4b28-ac3d-3addf7576905"/>
@@ -926,24 +918,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5B8CCA5-46C5-4FE2-8F8D-E0590993F707}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C585050-D745-4175-AE4B-4C2BE217B023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4AEEB69-9959-4E5E-9CBA-8CDDBC740872}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -959,4 +949,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C585050-D745-4175-AE4B-4C2BE217B023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5B8CCA5-46C5-4FE2-8F8D-E0590993F707}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>